--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52708,10 +52708,8 @@
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -52733,10 +52731,8 @@
       </c>
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -52758,10 +52754,8 @@
       </c>
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -52783,10 +52777,8 @@
       </c>
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -52808,10 +52800,8 @@
       </c>
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -52833,10 +52823,8 @@
       </c>
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -52862,10 +52850,8 @@
         </is>
       </c>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1922">
@@ -52887,10 +52873,8 @@
       </c>
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1922" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1923">
@@ -52912,10 +52896,8 @@
       </c>
       <c r="E1923" t="inlineStr"/>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -52937,10 +52919,8 @@
       </c>
       <c r="E1924" t="inlineStr"/>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -52962,10 +52942,8 @@
       </c>
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -52991,10 +52969,8 @@
         </is>
       </c>
       <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -53016,10 +52992,8 @@
       </c>
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -53041,10 +53015,8 @@
       </c>
       <c r="E1928" t="inlineStr"/>
       <c r="F1928" t="inlineStr"/>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -53066,10 +53038,8 @@
       </c>
       <c r="E1929" t="inlineStr"/>
       <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -53091,10 +53061,8 @@
       </c>
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -53124,10 +53092,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1931" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1932">
@@ -53145,10 +53111,8 @@
       </c>
       <c r="E1932" t="inlineStr"/>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1932" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1933">
@@ -53166,10 +53130,8 @@
       </c>
       <c r="E1933" t="inlineStr"/>
       <c r="F1933" t="inlineStr"/>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -53200,10 +53162,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53233,10 +53193,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53266,10 +53224,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53299,10 +53255,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53332,10 +53286,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53365,10 +53317,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53394,10 +53344,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53427,10 +53375,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53448,10 +53394,8 @@
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr"/>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53477,10 +53421,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53502,10 +53444,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53527,10 +53467,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53552,10 +53490,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53577,10 +53513,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53602,44 +53536,62 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Export Prices YoYAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -53649,63 +53601,87 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53717,49 +53693,65 @@
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
-      <c r="F1955" t="inlineStr"/>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
-      <c r="F1956" t="inlineStr"/>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
@@ -53768,7 +53760,7 @@
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53780,15 +53772,11 @@
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
-      <c r="D1958" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
@@ -53800,2417 +53788,86 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1959" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr"/>
       <c r="C1959" t="inlineStr"/>
-      <c r="D1959" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
+      <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1959" t="inlineStr"/>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>$112B</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="inlineStr">
-        <is>
-          <t>05:15 AM</t>
-        </is>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
-      <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
-      <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
-      <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="inlineStr">
-        <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
-      <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
-      <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementAPR</t>
-        </is>
-      </c>
-      <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="inlineStr">
-        <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
-      <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
-      <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1972" t="inlineStr"/>
-      <c r="D1972" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr"/>
-      <c r="D1973" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr"/>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>CPIAPR</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1978" t="inlineStr">
-        <is>
-          <t>CPI s.aAPR</t>
-        </is>
-      </c>
-      <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr">
-        <is>
-          <t>319.615</t>
-        </is>
-      </c>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1979" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/10</t>
-        </is>
-      </c>
-      <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
-      <c r="E1981" t="inlineStr"/>
-      <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="inlineStr">
-        <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
-      <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
-      <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr"/>
-      <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr"/>
-      <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr"/>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr"/>
-      <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr"/>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr"/>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52708,10 +52708,8 @@
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -52737,10 +52735,8 @@
       </c>
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -52766,10 +52762,8 @@
       </c>
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -52795,10 +52789,8 @@
       </c>
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -52824,10 +52816,8 @@
       </c>
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -52853,10 +52843,8 @@
       </c>
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -52882,10 +52870,8 @@
       </c>
       <c r="E1921" t="inlineStr"/>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -52911,10 +52897,8 @@
       </c>
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -52940,10 +52924,8 @@
         </is>
       </c>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1924">
@@ -52969,10 +52951,8 @@
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1924" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -52994,10 +52974,8 @@
       </c>
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -53019,10 +52997,8 @@
       </c>
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -53044,10 +53020,8 @@
       </c>
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -53073,10 +53047,8 @@
         </is>
       </c>
       <c r="F1928" t="inlineStr"/>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -53098,10 +53070,8 @@
       </c>
       <c r="E1929" t="inlineStr"/>
       <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -53123,10 +53093,8 @@
       </c>
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -53148,10 +53116,8 @@
       </c>
       <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -53173,10 +53139,8 @@
       </c>
       <c r="E1932" t="inlineStr"/>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -53206,10 +53170,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -53240,10 +53202,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53273,10 +53233,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53306,10 +53264,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53339,10 +53295,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53372,10 +53326,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53405,10 +53357,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53434,10 +53384,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53467,10 +53415,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53492,10 +53438,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53521,10 +53465,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53546,10 +53488,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53571,10 +53511,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53596,10 +53534,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53621,10 +53557,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53646,44 +53580,62 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Export Prices YoYAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -53693,63 +53645,87 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53761,49 +53737,65 @@
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
-      <c r="F1955" t="inlineStr"/>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
-      <c r="F1956" t="inlineStr"/>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
@@ -53812,7 +53804,7 @@
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53824,15 +53816,11 @@
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
-      <c r="D1958" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
@@ -53844,2441 +53832,86 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1959" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr"/>
       <c r="C1959" t="inlineStr"/>
-      <c r="D1959" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
+      <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1959" t="inlineStr"/>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>$112B</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="inlineStr">
-        <is>
-          <t>05:15 AM</t>
-        </is>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
-      <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
-      <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
-      <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="inlineStr">
-        <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
-      <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
-      <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementAPR</t>
-        </is>
-      </c>
-      <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="inlineStr">
-        <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
-      <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
-      <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1972" t="inlineStr"/>
-      <c r="D1972" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr"/>
-      <c r="D1973" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr"/>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>CPIAPR</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1978" t="inlineStr">
-        <is>
-          <t>CPI s.aAPR</t>
-        </is>
-      </c>
-      <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr">
-        <is>
-          <t>319.615</t>
-        </is>
-      </c>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1979" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/10</t>
-        </is>
-      </c>
-      <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
-      <c r="E1981" t="inlineStr"/>
-      <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="inlineStr">
-        <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
-      <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
-      <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
-      <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
-      <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>248.4</t>
-        </is>
-      </c>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr"/>
-      <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr"/>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr"/>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr"/>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G1962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52708,10 +52708,8 @@
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -52737,10 +52735,8 @@
       </c>
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -52766,10 +52762,8 @@
       </c>
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -52795,10 +52789,8 @@
       </c>
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -52824,10 +52816,8 @@
       </c>
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -52853,10 +52843,8 @@
       </c>
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -52882,10 +52870,8 @@
       </c>
       <c r="E1921" t="inlineStr"/>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -52911,10 +52897,8 @@
       </c>
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -52944,10 +52928,8 @@
         </is>
       </c>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1924">
@@ -52977,10 +52959,8 @@
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1924" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -53006,10 +52986,8 @@
       </c>
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -53035,10 +53013,8 @@
       </c>
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -53064,10 +53040,8 @@
       </c>
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -53097,10 +53071,8 @@
         </is>
       </c>
       <c r="F1928" t="inlineStr"/>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -53126,10 +53098,8 @@
       </c>
       <c r="E1929" t="inlineStr"/>
       <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -53155,10 +53125,8 @@
       </c>
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -53184,10 +53152,8 @@
       </c>
       <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -53213,10 +53179,8 @@
       </c>
       <c r="E1932" t="inlineStr"/>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -53250,10 +53214,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -53284,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53321,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53354,10 +53312,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53387,10 +53343,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53420,10 +53374,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53453,10 +53405,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53482,10 +53432,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53515,10 +53463,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53540,10 +53486,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53569,10 +53513,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53594,10 +53536,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53619,10 +53559,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53644,10 +53582,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53669,10 +53605,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53694,44 +53628,62 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Export Prices YoYAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -53741,63 +53693,87 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53809,49 +53785,65 @@
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
-      <c r="F1955" t="inlineStr"/>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
-      <c r="F1956" t="inlineStr"/>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
@@ -53860,7 +53852,7 @@
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53872,15 +53864,11 @@
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
-      <c r="D1958" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
@@ -53892,2481 +53880,86 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1959" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr"/>
       <c r="C1959" t="inlineStr"/>
-      <c r="D1959" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
+      <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1959" t="inlineStr"/>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsMAR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>$112B</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="inlineStr">
-        <is>
-          <t>05:15 AM</t>
-        </is>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
-      <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
-      <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
-      <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="inlineStr">
-        <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
-      <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
-      <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementAPR</t>
-        </is>
-      </c>
-      <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="inlineStr">
-        <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
-      <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
-      <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1972" t="inlineStr"/>
-      <c r="D1972" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr"/>
-      <c r="D1973" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr"/>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>CPIAPR</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1978" t="inlineStr">
-        <is>
-          <t>CPI s.aAPR</t>
-        </is>
-      </c>
-      <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr">
-        <is>
-          <t>319.615</t>
-        </is>
-      </c>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1979" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/10</t>
-        </is>
-      </c>
-      <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
-      <c r="E1981" t="inlineStr"/>
-      <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="inlineStr">
-        <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
-      <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
-      <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
-      <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
-      <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>248.4</t>
-        </is>
-      </c>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr">
-        <is>
-          <t>0.188M</t>
-        </is>
-      </c>
-      <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr">
-        <is>
-          <t>0.673M</t>
-        </is>
-      </c>
-      <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr">
-        <is>
-          <t>-0.74M</t>
-        </is>
-      </c>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr">
-        <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52708,10 +52708,8 @@
         </is>
       </c>
       <c r="F1915" t="inlineStr"/>
-      <c r="G1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -52737,10 +52735,8 @@
       </c>
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
-      <c r="G1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -52766,10 +52762,8 @@
       </c>
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
-      <c r="G1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -52795,10 +52789,8 @@
       </c>
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
-      <c r="G1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -52824,10 +52816,8 @@
       </c>
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
-      <c r="G1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -52853,10 +52843,8 @@
       </c>
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
-      <c r="G1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -52882,10 +52870,8 @@
       </c>
       <c r="E1921" t="inlineStr"/>
       <c r="F1921" t="inlineStr"/>
-      <c r="G1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -52911,10 +52897,8 @@
       </c>
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
-      <c r="G1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -52944,10 +52928,8 @@
         </is>
       </c>
       <c r="F1923" t="inlineStr"/>
-      <c r="G1923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1923" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1924">
@@ -52977,10 +52959,8 @@
         </is>
       </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1924" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -53006,10 +52986,8 @@
       </c>
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -53035,10 +53013,8 @@
       </c>
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
-      <c r="G1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -53064,10 +53040,8 @@
       </c>
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -53097,10 +53071,8 @@
         </is>
       </c>
       <c r="F1928" t="inlineStr"/>
-      <c r="G1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -53126,10 +53098,8 @@
       </c>
       <c r="E1929" t="inlineStr"/>
       <c r="F1929" t="inlineStr"/>
-      <c r="G1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -53155,10 +53125,8 @@
       </c>
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
-      <c r="G1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -53184,10 +53152,8 @@
       </c>
       <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
-      <c r="G1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -53213,10 +53179,8 @@
       </c>
       <c r="E1932" t="inlineStr"/>
       <c r="F1932" t="inlineStr"/>
-      <c r="G1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -53250,10 +53214,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="G1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -53284,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53321,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53354,10 +53312,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53387,10 +53343,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53420,10 +53374,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53453,10 +53405,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53482,10 +53432,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53515,10 +53463,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53540,10 +53486,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53569,10 +53513,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53594,10 +53536,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53619,10 +53559,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53644,10 +53582,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53669,10 +53605,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53694,110 +53628,152 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Import Prices YoYAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53809,28 +53785,36 @@
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
-      <c r="F1955" t="inlineStr"/>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
@@ -53839,19 +53823,19 @@
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
@@ -53860,2513 +53844,93 @@
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1958" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr"/>
       <c r="C1958" t="inlineStr"/>
-      <c r="D1958" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
-      <c r="G1958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1958" t="inlineStr"/>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" t="inlineStr">
-        <is>
-          <t>05:15 AM</t>
-        </is>
-      </c>
-      <c r="B1962" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
-      <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
-      <c r="G1962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="inlineStr">
-        <is>
-          <t>05:15 AM</t>
-        </is>
-      </c>
-      <c r="B1963" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
-      <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="inlineStr">
-        <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
-      <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
-      <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="inlineStr">
-        <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
-      <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1966" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1967" t="inlineStr"/>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1968" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1968" t="inlineStr"/>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>4.090%</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
-      <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1970" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementAPR</t>
-        </is>
-      </c>
-      <c r="C1970" t="inlineStr"/>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr"/>
-      <c r="F1970" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="inlineStr">
-        <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
-      <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
-      <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
-    </row>
-    <row r="1972">
-      <c r="A1972" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1972" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1972" t="inlineStr"/>
-      <c r="D1972" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1972" t="inlineStr"/>
-      <c r="F1972" t="inlineStr">
-        <is>
-          <t>91.5</t>
-        </is>
-      </c>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1973" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1973" t="inlineStr"/>
-      <c r="D1973" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1973" t="inlineStr"/>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1974" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1974" t="inlineStr"/>
-      <c r="D1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1975" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1976" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1977" t="inlineStr">
-        <is>
-          <t>CPIAPR</t>
-        </is>
-      </c>
-      <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1978" t="inlineStr">
-        <is>
-          <t>CPI s.aAPR</t>
-        </is>
-      </c>
-      <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr">
-        <is>
-          <t>319.615</t>
-        </is>
-      </c>
-      <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1979" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/10</t>
-        </is>
-      </c>
-      <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E1979" t="inlineStr"/>
-      <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
-      <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
-      <c r="E1980" t="inlineStr"/>
-      <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1981" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
-      <c r="E1981" t="inlineStr"/>
-      <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" t="inlineStr">
-        <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
-      <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
-      <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
-    </row>
-    <row r="1983">
-      <c r="A1983" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
-      <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1984" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
-        </is>
-      </c>
-      <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
-      <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1985" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
-        </is>
-      </c>
-      <c r="C1985" t="inlineStr"/>
-      <c r="D1985" t="inlineStr">
-        <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1986" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1986" t="inlineStr"/>
-      <c r="D1986" t="inlineStr">
-        <is>
-          <t>248.4</t>
-        </is>
-      </c>
-      <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1987" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1987" t="inlineStr"/>
-      <c r="D1987" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
-      <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1988" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/09</t>
-        </is>
-      </c>
-      <c r="C1988" t="inlineStr"/>
-      <c r="D1988" t="inlineStr">
-        <is>
-          <t>162.8</t>
-        </is>
-      </c>
-      <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1989" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1989" t="inlineStr"/>
-      <c r="D1989" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
-      <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1990" t="inlineStr"/>
-      <c r="D1990" t="inlineStr">
-        <is>
-          <t>0.188M</t>
-        </is>
-      </c>
-      <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1991" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1991" t="inlineStr"/>
-      <c r="D1991" t="inlineStr">
-        <is>
-          <t>0.673M</t>
-        </is>
-      </c>
-      <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1992" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1992" t="inlineStr"/>
-      <c r="D1992" t="inlineStr">
-        <is>
-          <t>-0.74M</t>
-        </is>
-      </c>
-      <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1993" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1993" t="inlineStr"/>
-      <c r="D1993" t="inlineStr">
-        <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr">
-        <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1995" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1996" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53246,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53283,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53316,10 +53312,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53349,10 +53343,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53382,10 +53374,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53415,10 +53405,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53444,10 +53432,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53477,10 +53463,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53506,10 +53490,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53535,10 +53517,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53560,10 +53540,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53585,10 +53563,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53610,10 +53586,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53635,10 +53609,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53660,65 +53632,83 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsMAY/10</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>-26.4</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="G1952" t="inlineStr">
         <is>
           <t>2</t>
@@ -53728,18 +53718,26 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
           <t>2</t>
@@ -53754,13 +53752,21 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
           <t>2</t>
@@ -53770,12 +53776,12 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
@@ -53784,40 +53790,48 @@
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
-      <c r="F1956" t="inlineStr"/>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
@@ -53826,25 +53840,25 @@
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -53858,18 +53872,18 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -53883,124 +53897,188 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentMAY</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>-34.2</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+        </is>
+      </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+        </is>
+      </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
           <t>3</t>
@@ -54010,22 +54088,26 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -54035,22 +54117,26 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -54060,87 +54146,111 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr"/>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYAPR</t>
+        </is>
+      </c>
       <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1972" t="inlineStr">
@@ -54152,194 +54262,178 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
       <c r="D1973" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1973" t="inlineStr"/>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
       <c r="D1975" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
       <c r="D1976" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1976" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>319.799</t>
-        </is>
-      </c>
+      <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr">
-        <is>
-          <t>319.615</t>
-        </is>
-      </c>
+      <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
@@ -54351,20 +54445,16 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
@@ -54376,20 +54466,16 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
+      <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
@@ -54401,185 +54487,197 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>NOPA Crush Report</t>
+        </is>
+      </c>
       <c r="C1982" t="inlineStr"/>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr"/>
       <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
+      <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr"/>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
+      <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr"/>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr"/>
       <c r="D1986" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr"/>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr"/>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr"/>
       <c r="D1989" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1989" t="inlineStr">
         <is>
           <t>2</t>
@@ -54589,22 +54687,26 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr"/>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1990" t="inlineStr">
         <is>
           <t>2</t>
@@ -54614,22 +54716,26 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr"/>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -54639,22 +54745,26 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -54664,47 +54774,55 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr"/>
       <c r="D1993" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -54714,22 +54832,26 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr"/>
       <c r="D1995" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
+      <c r="F1995" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1995" t="inlineStr">
         <is>
           <t>3</t>
@@ -54739,22 +54861,26 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
       <c r="D1996" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
+      <c r="F1996" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -54764,22 +54890,26 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr"/>
       <c r="D1997" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
+      <c r="F1997" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1997" t="inlineStr">
         <is>
           <t>3</t>
@@ -54789,20 +54919,16 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
+      <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
@@ -54814,1529 +54940,107 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
+        </is>
+      </c>
       <c r="C1999" t="inlineStr"/>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr"/>
       <c r="C2000" t="inlineStr"/>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2000" t="inlineStr"/>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>PPI MoMAPR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr"/>
       <c r="D2001" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr"/>
       <c r="D2002" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr"/>
       <c r="D2003" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53246,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53283,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53320,10 +53316,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53357,10 +53351,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53394,10 +53386,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53431,10 +53421,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53464,10 +53452,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53497,10 +53483,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53526,10 +53510,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53555,10 +53537,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53580,10 +53560,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53605,10 +53583,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53630,10 +53606,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53655,10 +53629,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53680,65 +53652,87 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsMAY/10</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>228K</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>-26.4</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
-      <c r="F1952" t="inlineStr"/>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="G1952" t="inlineStr">
         <is>
           <t>2</t>
@@ -53748,18 +53742,26 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
           <t>2</t>
@@ -53774,13 +53776,21 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
-      <c r="F1954" t="inlineStr"/>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1954" t="inlineStr">
         <is>
           <t>2</t>
@@ -53790,81 +53800,97 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>1879K</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
-      <c r="F1956" t="inlineStr"/>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr"/>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -53878,18 +53904,18 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -53903,124 +53929,188 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>Philly Fed EmploymentMAY</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>-34.2</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+        </is>
+      </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+        </is>
+      </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
           <t>3</t>
@@ -54030,22 +54120,26 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -54055,22 +54149,26 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -54080,87 +54178,111 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr"/>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
+          <t>06:45 PM</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYAPR</t>
+        </is>
+      </c>
       <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1972" t="inlineStr">
@@ -54172,194 +54294,178 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
       <c r="D1973" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1973" t="inlineStr"/>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
       <c r="D1975" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
       <c r="D1976" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1976" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1976" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
-      <c r="D1977" t="inlineStr">
-        <is>
-          <t>319.799</t>
-        </is>
-      </c>
+      <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
-      <c r="D1978" t="inlineStr">
-        <is>
-          <t>319.615</t>
-        </is>
-      </c>
+      <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
@@ -54371,20 +54477,16 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
@@ -54396,20 +54498,16 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
+      <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
@@ -54421,185 +54519,197 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>NOPA Crush Report</t>
+        </is>
+      </c>
       <c r="C1982" t="inlineStr"/>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1983" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr"/>
       <c r="C1983" t="inlineStr"/>
-      <c r="D1983" t="inlineStr">
-        <is>
-          <t>-4.49M</t>
-        </is>
-      </c>
+      <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr"/>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr"/>
-      <c r="D1984" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
+      <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr"/>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr"/>
       <c r="D1986" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr"/>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr"/>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr"/>
       <c r="D1989" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1989" t="inlineStr">
         <is>
           <t>2</t>
@@ -54609,22 +54719,26 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr"/>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1990" t="inlineStr">
         <is>
           <t>2</t>
@@ -54634,22 +54748,26 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr"/>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -54659,22 +54777,26 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -54684,47 +54806,55 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr"/>
       <c r="D1993" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -54734,22 +54864,26 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr"/>
       <c r="D1995" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
+      <c r="F1995" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1995" t="inlineStr">
         <is>
           <t>3</t>
@@ -54759,22 +54893,26 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
       <c r="D1996" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
+      <c r="F1996" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -54784,22 +54922,26 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr"/>
       <c r="D1997" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
+      <c r="F1997" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1997" t="inlineStr">
         <is>
           <t>3</t>
@@ -54809,20 +54951,16 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
+      <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
@@ -54834,1541 +54972,107 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
+        </is>
+      </c>
       <c r="C1999" t="inlineStr"/>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr"/>
       <c r="C2000" t="inlineStr"/>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2000" t="inlineStr"/>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>PPI MoMAPR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr"/>
       <c r="D2001" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr"/>
       <c r="D2002" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr"/>
       <c r="D2003" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53246,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53283,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53320,10 +53316,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53357,10 +53351,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53394,10 +53386,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53431,10 +53421,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53464,10 +53452,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53501,10 +53487,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53534,10 +53518,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53567,10 +53549,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53596,10 +53576,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53625,10 +53603,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53650,10 +53626,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53675,10 +53649,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53700,89 +53672,119 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>1879K</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53794,97 +53796,113 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr"/>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -53898,18 +53916,18 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -53923,149 +53941,229 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>PPIAPR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr"/>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+        </is>
+      </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYAPR</t>
+        </is>
+      </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -54075,22 +54173,26 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -54100,18 +54202,26 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -54121,83 +54231,99 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr"/>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
@@ -54206,180 +54332,152 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="E1973" t="inlineStr"/>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr"/>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
@@ -54391,45 +54489,29 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr"/>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
+      <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
@@ -54441,60 +54523,84 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>Building Permits PrelAPR</t>
+        </is>
+      </c>
       <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
       <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr"/>
       <c r="D1983" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr"/>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1984" t="inlineStr">
         <is>
           <t>2</t>
@@ -54504,97 +54610,113 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr"/>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr"/>
       <c r="D1986" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr"/>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr"/>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -54604,72 +54726,84 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr"/>
       <c r="D1989" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr"/>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr"/>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -54679,22 +54813,26 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -54704,22 +54842,26 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr"/>
       <c r="D1993" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -54729,22 +54871,26 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -54754,20 +54900,16 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
+      <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr">
@@ -54779,20 +54921,16 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
+      <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
@@ -54804,1595 +54942,86 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr"/>
       <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
+      <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
       <c r="D1998" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAR</t>
+        </is>
+      </c>
       <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53246,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53283,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53320,10 +53316,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53357,10 +53351,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53394,10 +53386,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53431,10 +53421,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53464,10 +53452,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53501,10 +53487,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53534,10 +53518,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53567,10 +53549,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53596,10 +53576,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53625,10 +53603,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53654,10 +53630,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53683,10 +53657,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53712,89 +53684,119 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>1879K</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53806,97 +53808,113 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr"/>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -53910,18 +53928,18 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -53935,149 +53953,229 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>PPIAPR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr"/>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+        </is>
+      </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYAPR</t>
+        </is>
+      </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -54087,22 +54185,26 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -54112,18 +54214,26 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -54133,83 +54243,99 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr"/>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
@@ -54220,186 +54346,150 @@
       </c>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1975" t="inlineStr"/>
+      <c r="E1975" t="inlineStr"/>
+      <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
@@ -54411,45 +54501,29 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr"/>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
-      <c r="D1981" t="inlineStr">
-        <is>
-          <t>3.820%</t>
-        </is>
-      </c>
+      <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
@@ -54461,60 +54535,84 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>Building Permits PrelAPR</t>
+        </is>
+      </c>
       <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
       <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr"/>
       <c r="D1983" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr"/>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1984" t="inlineStr">
         <is>
           <t>2</t>
@@ -54524,97 +54622,113 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr"/>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr"/>
       <c r="D1986" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr"/>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr"/>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -54624,72 +54738,84 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr"/>
       <c r="D1989" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr"/>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr"/>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -54699,22 +54825,26 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -54724,22 +54854,26 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr"/>
       <c r="D1993" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -54749,22 +54883,26 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -54774,20 +54912,16 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
+      <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr">
@@ -54799,20 +54933,16 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
+      <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
@@ -54824,1603 +54954,86 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr"/>
       <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
+      <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
       <c r="D1998" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAR</t>
+        </is>
+      </c>
       <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr">
-        <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-05-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2057"/>
+  <dimension ref="A1:G2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53246,10 +53246,8 @@
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -53283,10 +53281,8 @@
           <t>$7.0B</t>
         </is>
       </c>
-      <c r="G1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -53320,10 +53316,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -53357,10 +53351,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="G1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -53394,10 +53386,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="G1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -53431,10 +53421,8 @@
           <t>1921.0K</t>
         </is>
       </c>
-      <c r="G1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -53464,10 +53452,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -53501,10 +53487,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -53534,10 +53518,8 @@
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
-      <c r="G1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -53567,10 +53549,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -53596,10 +53576,8 @@
       </c>
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -53625,10 +53603,8 @@
       </c>
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -53654,10 +53630,8 @@
       </c>
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -53683,10 +53657,8 @@
       </c>
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -53712,93 +53684,119 @@
       </c>
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>Friday May 09 2025</t>
-        </is>
-      </c>
-      <c r="B1950" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMAPR</t>
+        </is>
+      </c>
       <c r="C1950" t="inlineStr"/>
-      <c r="D1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E1950" t="inlineStr"/>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/07</t>
-        </is>
-      </c>
-      <c r="C1951" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+          <t>Retail Sales Ex Autos MoMAPR</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr"/>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr"/>
-      <c r="F1951" t="inlineStr"/>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr"/>
-      <c r="D1952" t="inlineStr"/>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>1879K</t>
+        </is>
+      </c>
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr"/>
-      <c r="D1953" t="inlineStr"/>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1953" t="inlineStr"/>
-      <c r="F1953" t="inlineStr"/>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -53810,97 +53808,113 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr"/>
-      <c r="D1954" t="inlineStr"/>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr"/>
-      <c r="D1955" t="inlineStr"/>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr"/>
-      <c r="D1956" t="inlineStr"/>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E1956" t="inlineStr"/>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr"/>
-      <c r="D1957" t="inlineStr"/>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr"/>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -53914,18 +53928,18 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr"/>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -53939,149 +53953,229 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1960" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>PPIAPR</t>
+        </is>
+      </c>
       <c r="C1960" t="inlineStr"/>
-      <c r="D1960" t="inlineStr"/>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>147.464</t>
+        </is>
+      </c>
       <c r="E1960" t="inlineStr"/>
-      <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr"/>
-      <c r="D1961" t="inlineStr"/>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1961" t="inlineStr"/>
-      <c r="F1961" t="inlineStr"/>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr"/>
-      <c r="D1962" t="inlineStr"/>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1962" t="inlineStr"/>
-      <c r="F1962" t="inlineStr"/>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr"/>
-      <c r="D1963" t="inlineStr"/>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E1963" t="inlineStr"/>
-      <c r="F1963" t="inlineStr"/>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1964" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+        </is>
+      </c>
       <c r="C1964" t="inlineStr"/>
-      <c r="D1964" t="inlineStr"/>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1964" t="inlineStr"/>
-      <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1965" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYAPR</t>
+        </is>
+      </c>
       <c r="C1965" t="inlineStr"/>
-      <c r="D1965" t="inlineStr"/>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="E1965" t="inlineStr"/>
-      <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr"/>
-      <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1966" t="inlineStr"/>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E1966" t="inlineStr"/>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr"/>
       <c r="D1967" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="E1967" t="inlineStr"/>
-      <c r="F1967" t="inlineStr"/>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -54091,22 +54185,26 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr"/>
       <c r="D1968" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1968" t="inlineStr"/>
-      <c r="F1968" t="inlineStr"/>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -54116,18 +54214,26 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr"/>
-      <c r="D1969" t="inlineStr"/>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1969" t="inlineStr"/>
-      <c r="F1969" t="inlineStr"/>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -54137,83 +54243,99 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr"/>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>$-161B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>$235.0B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1971" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMMAR</t>
+        </is>
+      </c>
       <c r="C1971" t="inlineStr"/>
-      <c r="D1971" t="inlineStr"/>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E1971" t="inlineStr"/>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr"/>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>91.5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr"/>
@@ -54224,186 +54346,150 @@
       </c>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr"/>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr"/>
-      <c r="D1975" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1975" t="inlineStr"/>
+      <c r="E1975" t="inlineStr"/>
+      <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr"/>
-      <c r="D1976" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr"/>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr"/>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1977" t="inlineStr"/>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>321.7</t>
-        </is>
-      </c>
+      <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr"/>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E1978" t="inlineStr"/>
-      <c r="F1978" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr"/>
-      <c r="D1979" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
@@ -54415,43 +54501,31 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1980" t="inlineStr">
-        <is>
-          <t>Total Household DebtQ1</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr"/>
       <c r="C1980" t="inlineStr"/>
-      <c r="D1980" t="inlineStr">
-        <is>
-          <t>$18.04T</t>
-        </is>
-      </c>
+      <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr"/>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr"/>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr"/>
@@ -54465,60 +54539,84 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1982" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>Building Permits PrelAPR</t>
+        </is>
+      </c>
       <c r="C1982" t="inlineStr"/>
-      <c r="D1982" t="inlineStr"/>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
       <c r="E1982" t="inlineStr"/>
-      <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr"/>
       <c r="D1983" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1983" t="inlineStr"/>
-      <c r="F1983" t="inlineStr"/>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>1.31M</t>
+        </is>
+      </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr"/>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr"/>
-      <c r="F1984" t="inlineStr"/>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1984" t="inlineStr">
         <is>
           <t>2</t>
@@ -54528,97 +54626,113 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr"/>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
-      <c r="F1985" t="inlineStr"/>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr"/>
       <c r="D1986" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1986" t="inlineStr"/>
-      <c r="F1986" t="inlineStr"/>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr"/>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
-      <c r="F1987" t="inlineStr"/>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr"/>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
-      <c r="F1988" t="inlineStr"/>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -54628,72 +54742,84 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr"/>
       <c r="D1989" t="inlineStr">
         <is>
-          <t>-2.032M</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1989" t="inlineStr"/>
-      <c r="F1989" t="inlineStr"/>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr"/>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
-      <c r="F1990" t="inlineStr"/>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr"/>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
-      <c r="F1991" t="inlineStr"/>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1991" t="inlineStr">
         <is>
           <t>3</t>
@@ -54703,22 +54829,26 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr"/>
       <c r="D1992" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1992" t="inlineStr"/>
-      <c r="F1992" t="inlineStr"/>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="G1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -54728,22 +54858,26 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr"/>
       <c r="D1993" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1993" t="inlineStr"/>
-      <c r="F1993" t="inlineStr"/>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>59.5</t>
+        </is>
+      </c>
       <c r="G1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -54753,22 +54887,26 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -54778,20 +54916,16 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr">
-        <is>
-          <t>0.253M</t>
-        </is>
-      </c>
+      <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr">
@@ -54803,20 +54937,16 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr">
-        <is>
-          <t>0.123M</t>
-        </is>
-      </c>
+      <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
@@ -54828,1607 +54958,86 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1997" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Saturday May 17 2025</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr"/>
       <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr">
-        <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
+      <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr"/>
       <c r="D1998" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr"/>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentMAR</t>
+        </is>
+      </c>
       <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>$106.2B</t>
+        </is>
+      </c>
       <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>03:10 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>Core PPI MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr">
-        <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr">
-        <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr">
-        <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>Core PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr"/>
-      <c r="D2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAY</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAY</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAY</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr">
-        <is>
-          <t>-34.2</t>
-        </is>
-      </c>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAY</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>PPIAPR</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr">
-        <is>
-          <t>147.464</t>
-        </is>
-      </c>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>PPI YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationAPR</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr">
-        <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr">
-        <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/15</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr"/>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/14</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>Housing StartsAPR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr">
-        <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelAPR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>Export Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr">
-        <is>
-          <t>-11.4%</t>
-        </is>
-      </c>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>Import Prices MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr"/>
-      <c r="D2044" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>Export Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>Saturday May 17 2025</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr"/>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
         <is>
           <t>3</t>
         </is>
